--- a/matchingReports.xlsx
+++ b/matchingReports.xlsx
@@ -45,22 +45,12 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="48"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="48"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -77,7 +67,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true"/>
     </xf>
